--- a/Dataset/KTM Komuter.xlsx
+++ b/Dataset/KTM Komuter.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JasonX\PycharmProjects\Algo-Assignment\Dataset\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{909DBE2E-D36C-49FF-B403-42D9D0A63B7C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA02EB20-577F-4D0D-8E83-DC32F4DC4DB6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{3DFF64DC-D989-47BF-B042-34AAD9B60226}"/>
   </bookViews>
@@ -916,7 +916,7 @@
   <dimension ref="A1:H61"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Dataset/KTM Komuter.xlsx
+++ b/Dataset/KTM Komuter.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JasonX\PycharmProjects\Algo-Assignment\Dataset\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA02EB20-577F-4D0D-8E83-DC32F4DC4DB6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42E85666-53C0-4BCB-8844-BA06191FB64F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{3DFF64DC-D989-47BF-B042-34AAD9B60226}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8964" xr2:uid="{3DFF64DC-D989-47BF-B042-34AAD9B60226}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="150">
   <si>
     <t>SELANGOR</t>
   </si>
@@ -480,6 +480,9 @@
   </si>
   <si>
     <t>STATE</t>
+  </si>
+  <si>
+    <t>STATION</t>
   </si>
 </sst>
 </file>
@@ -915,9 +918,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{029C1D9E-71F7-45A5-A03D-5F270278EBD9}">
   <dimension ref="A1:H61"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -947,7 +948,7 @@
         <v>144</v>
       </c>
       <c r="F1" s="13" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="G1" s="13" t="s">
         <v>145</v>

--- a/Dataset/KTM Komuter.xlsx
+++ b/Dataset/KTM Komuter.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JasonX\PycharmProjects\Algo-Assignment\Dataset\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42E85666-53C0-4BCB-8844-BA06191FB64F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7302991A-FC95-419D-AB1F-4EC21D60F848}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8964" xr2:uid="{3DFF64DC-D989-47BF-B042-34AAD9B60226}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{3DFF64DC-D989-47BF-B042-34AAD9B60226}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -41,9 +41,6 @@
     <t>TENGAH</t>
   </si>
   <si>
-    <t>ABDULLAH HUKUM</t>
-  </si>
-  <si>
     <t>STESEN KTM KOMUTER ABDULLAH HUKUM, 59200 KUALA LUMPUR, FEDERAL TERRITORY OF KUALA LUMPUR</t>
   </si>
   <si>
@@ -53,21 +50,12 @@
     <t>UTARA</t>
   </si>
   <si>
-    <t>TANJONG MALIM</t>
-  </si>
-  <si>
     <t>STESEN KTM TANJUNG MALIM,  35900 TANJUNG MALIM</t>
   </si>
   <si>
-    <t>KUALA KUBU BAHRU</t>
-  </si>
-  <si>
     <t xml:space="preserve">STESEN KERETAPI KUALA KUBU BHARU, KUALA KUBU BHARU, SELANGOR, </t>
   </si>
   <si>
-    <t>RASA</t>
-  </si>
-  <si>
     <t>3.500310</t>
   </si>
   <si>
@@ -77,30 +65,18 @@
     <t>STESEN KERETAPI RASA, KAMPUNG MELAYU RASA, 44200 RASA, SELANGOR</t>
   </si>
   <si>
-    <t>BATANG KALI</t>
-  </si>
-  <si>
     <t>3.468380</t>
   </si>
   <si>
     <t>STESEN KTM KOMUTER BATANG KALI, 44200 BATANG KALI, SELANGOR</t>
   </si>
   <si>
-    <t>SERENDAH</t>
-  </si>
-  <si>
     <t>STESEN KOMUTER SERENDAH, 48200 SERENDAH, SELANGOR</t>
   </si>
   <si>
-    <t>RAWANG</t>
-  </si>
-  <si>
     <t xml:space="preserve">STESEN KERETAPI RAWANG, 41300 RAWANG, SELANGOR, </t>
   </si>
   <si>
-    <t>KUANG</t>
-  </si>
-  <si>
     <t>3.258250</t>
   </si>
   <si>
@@ -110,84 +86,51 @@
     <t>KUANG, 48050 KUANG, SELANGOR</t>
   </si>
   <si>
-    <t>SUNGAI BULOH</t>
-  </si>
-  <si>
     <t>STESEN KERETAPI SUNGAI BULOH, LOT 3, JALAN KUALA SELANGOR, 47000 SUNGAI BULOH</t>
   </si>
   <si>
     <t>WILAYAH PERSEKUTUAN</t>
   </si>
   <si>
-    <t>KEPONG SENTRAL</t>
-  </si>
-  <si>
     <t>STESEN KTM KOMUTER KEPONG SENTRAL, 52200 SUNGAI BULOH, SELANGOR</t>
   </si>
   <si>
-    <t>KEPONG</t>
-  </si>
-  <si>
     <t>101.629090</t>
   </si>
   <si>
     <t>STESEN KOMUTER KEPONG, 52100 SUNGAI BULOH, SELANGOR</t>
   </si>
   <si>
-    <t>SEGAMBUT</t>
-  </si>
-  <si>
     <t>STESEN KOMUTER SEGAMBUT, JALAN DUTAMAS, 51200 KUALA LUMPUR, FEDERAL TERRITORY OF KUALA LUMPUR</t>
   </si>
   <si>
-    <t>PUTRA</t>
-  </si>
-  <si>
     <t>101.689140</t>
   </si>
   <si>
     <t>STESEN KTM KOMUTER PUTRA, KUALA LUMPUR, 50480 KUALA LUMPUR, FEDERAL TERRITORY OF KUALA LUMPUR</t>
   </si>
   <si>
-    <t>BANK NEGARA</t>
-  </si>
-  <si>
     <t>101.690920</t>
   </si>
   <si>
     <t>STESEN KTM KOMUTER BANK NEGARA, KUALA LUMPUR, 50480 KUALA LUMPUR, FEDERAL TERRITORY OF KUALA LUMPUR</t>
   </si>
   <si>
-    <t>KUALA LUMPUR</t>
-  </si>
-  <si>
     <t>KUALA LUMPUR RAILWAY,  JALAN SULTAN HISHAMUDDIN,  50621 KUALA LUMPUR</t>
   </si>
   <si>
-    <t>KL SENTRAL</t>
-  </si>
-  <si>
     <t>KUALA LUMPUR SENTRAL,  50470 KUALA LUMPUR</t>
   </si>
   <si>
-    <t>ANGKASAPURI</t>
-  </si>
-  <si>
     <t>101.673317</t>
   </si>
   <si>
     <t>PERHENTIAN KTMB ANGKASAPURI,JALAN PANTAI DALAM,59200 KERINCHI</t>
   </si>
   <si>
-    <t>PANTAI DALAM</t>
-  </si>
-  <si>
     <t>STESEN KTM KOMUTER PANTAI DALAM, 59200 KUALA LUMPUR, WILAYAH PERSEKUTUAN KUALA LUMPUR</t>
   </si>
   <si>
-    <t>PETALING</t>
-  </si>
-  <si>
     <t>3.086050</t>
   </si>
   <si>
@@ -197,36 +140,21 @@
     <t>STESEN KTM KOMUTER PETALING, JALAN KAMPUNG PASIR, KAMPUNG PASIR, 58200 KUALA LUMPUR, WILAYAH PERSEKUTUAN KUALA LUMPUR</t>
   </si>
   <si>
-    <t>JALAN TEMPLER</t>
-  </si>
-  <si>
     <t>101.654200</t>
   </si>
   <si>
     <t>STESEN KTM KOMUTER JALAN TEMPLER, SEKSYEN 1A, 46000 PETALING JAYA, SELANGOR</t>
   </si>
   <si>
-    <t>KAMPUNG DATO HARUN</t>
-  </si>
-  <si>
     <t>STESEN KTM KOMUTER KG DATO HARUN, PJS 51, 46000 PETALING JAYA, SELANGOR</t>
   </si>
   <si>
-    <t>SERI SETIA</t>
-  </si>
-  <si>
     <t>STESEN KTM KOMUTER SERI SETIA, SS 10, 46150 PETALING JAYA, SELANGOR</t>
   </si>
   <si>
-    <t>SETIA JAYA</t>
-  </si>
-  <si>
     <t>STESEN KTM KOMUTER SETIA JAYA, SS 10, 46150 PETALING JAYA, SELANGOR</t>
   </si>
   <si>
-    <t>SUBANG JAYA</t>
-  </si>
-  <si>
     <t>3.083620</t>
   </si>
   <si>
@@ -236,15 +164,9 @@
     <t>STESEN KTM SUBANG JAYA, JALAN SS 16/1, SS 16, SUBANG JAYA, SELANGOR, MALAYSIA</t>
   </si>
   <si>
-    <t>BATU TIGA</t>
-  </si>
-  <si>
     <t>STESEN KTM BATU TIGA, PERSIARAN TEKNOLOGI SUBANG, 40150 SUBANG JAYA, SELANGOR</t>
   </si>
   <si>
-    <t>SHAH ALAM</t>
-  </si>
-  <si>
     <t>3.056390</t>
   </si>
   <si>
@@ -254,135 +176,72 @@
     <t>STESEN KTM SHAH ALAM, JALAN NYIUR 18/41, SEKSYEN 18, 40200 SHAH ALAM, SELANGOR</t>
   </si>
   <si>
-    <t>PADANG JAWA</t>
-  </si>
-  <si>
     <t>STESEN KTM KOMUTER PADANG JAWA, KAMPUNG PADANG JAWA, 40200 SHAH ALAM, SELANGOR</t>
   </si>
   <si>
-    <t>BUKIT BADAK</t>
-  </si>
-  <si>
     <t>3.035880</t>
   </si>
   <si>
     <t>STESEN KTM BUKIT BADAK, 41000 KLANG, SELANGOR</t>
   </si>
   <si>
-    <t>KLANG</t>
-  </si>
-  <si>
     <t>STESEN KTM KOMUTER KLANG, KAWASAN 1, 41000 KLANG, SELANGOR</t>
   </si>
   <si>
-    <t>TELUK PULAI</t>
-  </si>
-  <si>
     <t>STESEN KTM KOMUTER TELUK PULAI, 121, JALAN TELUK PULAI, TAMAN TELUK PULAI, 41100 KLANG, SELANGOR</t>
   </si>
   <si>
-    <t>TELUK GADONG</t>
-  </si>
-  <si>
     <t>STESEN KTM TELUK GADONG, 41200 KLANG, SELANGOR</t>
   </si>
   <si>
-    <t>KAMPUNG RAJA UDA</t>
-  </si>
-  <si>
     <t>STESEN KTM KOMUTER KAMPUNG SUNGAI SIREH TAMBAHAN, 42000 PORT KLANG, SELANGOR</t>
   </si>
   <si>
-    <t>JALAN KASTAM</t>
-  </si>
-  <si>
     <t>STESEN KTM JALAN KASTAM, KAMPUNG KERETAPI, 42000 PORT KLANG, SELANGOR</t>
   </si>
   <si>
-    <t>PELABUHAN KLANG</t>
-  </si>
-  <si>
     <t>STESEN KTM KOMUTER PEL. KLANG, KAWASAN 13, 42000 PELABUHAN KLANG, SELANGOR</t>
   </si>
   <si>
     <t>Tg Malim - Pel. Klang</t>
   </si>
   <si>
-    <t>BATU CAVES</t>
-  </si>
-  <si>
     <t>STESEN KTM KOMUTER BATU CAVES, 68100 BATU CAVES, SELANGOR</t>
   </si>
   <si>
-    <t>TAMAN WAHYU</t>
-  </si>
-  <si>
     <t>STESEN KTM KOMUTER TAMAN WAHYU, TAMAN MASTIARA, 51200 KUALA LUMPUR, FEDERAL TERRITORY OF KUALA LUMPUR</t>
   </si>
   <si>
-    <t>KAMPUNG BATU</t>
-  </si>
-  <si>
     <t>STESEN KTM KOMUTER KG BATU, TAMAN BATU PERMAI, 51200 KUALA LUMPUR, FEDERAL TERRITORY OF KUALA LUMPUR</t>
   </si>
   <si>
-    <t>BATU KENTONMEN</t>
-  </si>
-  <si>
     <t>STESEN KTM KOMUTER KEM BATU KENTONMEN, 51100 KUALA LUMPUR, FEDERAL TERRITORY OF KUALA LUMPUR</t>
   </si>
   <si>
-    <t>SENTUL</t>
-  </si>
-  <si>
     <t>STESEN KOMUTER SENTUL, 51100 KUALA LUMPUR, FEDERAL TERRITORY OF KUALA LUMPUR</t>
   </si>
   <si>
-    <t>MIDVALLEY</t>
-  </si>
-  <si>
     <t>STESEN KTM KOMUTER MIDVALLEY, 58000 KUALA LUMPUR, FEDERAL TERRITORY OF KUALA LUMPUR</t>
   </si>
   <si>
-    <t>SEPUTEH</t>
-  </si>
-  <si>
     <t>STESEN KTM KOMUTER SEPUTEH, TAMAN SEPUTEH, 58000 KUALA LUMPUR, FEDERAL TERRITORY OF KUALA LUMPUR</t>
   </si>
   <si>
-    <t>SALAK SELATAN</t>
-  </si>
-  <si>
     <t>STESEN KTM KOMUTER SALAK SOUTH, 57100 KUALA LUMPUR, FEDERAL TERRITORY OF KUALA LUMPUR</t>
   </si>
   <si>
-    <t>BANDAR TASEK SELATAN</t>
-  </si>
-  <si>
     <t>STESEN KTMB BANDAR TASIK SELATAN SELATAN, JALAN LINGKARAN TENGAH 2, KUALA LUMPUR</t>
   </si>
   <si>
-    <t>SERDANG</t>
-  </si>
-  <si>
     <t>STESEN KOMUTER SERDANG, 52, JALAN DAGANG SB 4/2, TAMAN SUNGAI BESI INDAH, 43300 SERI KEMBANGAN, SELANGOR</t>
   </si>
   <si>
-    <t xml:space="preserve">KAJANG </t>
-  </si>
-  <si>
     <t>STESEN KTM KOMUTER KAJANG, 43000 KAJANG, SELANGOR</t>
   </si>
   <si>
-    <t>UKM</t>
-  </si>
-  <si>
     <t>STESEN KTM UKM, 43000 BANGI, SELANGOR, 43600 BANGI, SELANGOR</t>
   </si>
   <si>
-    <t>BANGI</t>
-  </si>
-  <si>
     <t>STESEN KTM BANGI, 43000 BANGI, SELANGOR</t>
   </si>
   <si>
@@ -392,66 +251,39 @@
     <t>SELATAN</t>
   </si>
   <si>
-    <t>BATANG BENAR</t>
-  </si>
-  <si>
     <t>STESEN KTM BATANG BENAR, KAMPUNG SUNGAI MAHANG, 71800 NILAI, NEGERI SEMBILAN</t>
   </si>
   <si>
-    <t>NILAI</t>
-  </si>
-  <si>
     <t>STESEN KTM NILAI, 71800 NILAI, NEGERI SEMBILAN, PEKAN NILAI, 71800 NILAI, NEGERI SEMBILAN</t>
   </si>
   <si>
-    <t>LABU</t>
-  </si>
-  <si>
     <t>101.824200</t>
   </si>
   <si>
     <t>STESEN KTM LABU, KAMPUNG LABU, 71900 LABU, NEGERI SEMBILAN</t>
   </si>
   <si>
-    <t>TIROI</t>
-  </si>
-  <si>
     <t>101.869470</t>
   </si>
   <si>
     <t>STESEN KTM TIROI, TAMAN TIROI, 71900 LABU, NEGERI SEMBILAN</t>
   </si>
   <si>
-    <t>SEREMBAN</t>
-  </si>
-  <si>
     <t>KTM KOMUTER,  BANDAR SEREMBAN, 70300 SEREMBAN</t>
   </si>
   <si>
-    <t>SENAWANG</t>
-  </si>
-  <si>
     <t>STESEN KTM SENAWANG, STESEN KTM SENAWANG, 18, LORONG SRI MAWAR 13/2, TAMAN SRI MAWAR, 70450 SEREMBAN, NEGERI SEMBILAN</t>
   </si>
   <si>
-    <t>SUNGAI GADUT</t>
-  </si>
-  <si>
     <t>STESEN KTM, SUNGAI GADUT, TAMAN PINGGIRAN SENAWANG, 71450 SEREMBAN, NEGERI SEMBILAN</t>
   </si>
   <si>
-    <t>REMBAU</t>
-  </si>
-  <si>
     <t>STESEN KTM REMBAU, JALAN STESYEN, KAMPUNG BATU, 71300 REMBAU, NEGERI SEMBILAN</t>
   </si>
   <si>
     <t>MELAKA</t>
   </si>
   <si>
-    <t>PULAU SEBANG/TAMPIN</t>
-  </si>
-  <si>
     <t>2.463710</t>
   </si>
   <si>
@@ -483,6 +315,174 @@
   </si>
   <si>
     <t>STATION</t>
+  </si>
+  <si>
+    <t>Stesen Keretapi Kuala Kubu Bharu</t>
+  </si>
+  <si>
+    <t>Stesen Keretapi Rasa</t>
+  </si>
+  <si>
+    <t>Stesen Komuter Serendah</t>
+  </si>
+  <si>
+    <t>Stesen Keretapi Rawang</t>
+  </si>
+  <si>
+    <t>Stesen Keretapi Sungai Buloh</t>
+  </si>
+  <si>
+    <t>Stesen Komuter Kepong</t>
+  </si>
+  <si>
+    <t>Stesen Komuter Segambut</t>
+  </si>
+  <si>
+    <t>Kuala Lumpur Railway</t>
+  </si>
+  <si>
+    <t>Kuala Lumpur Sentral</t>
+  </si>
+  <si>
+    <t>Stesen Komuter Sentul</t>
+  </si>
+  <si>
+    <t>Stesen Komuter Serdang</t>
+  </si>
+  <si>
+    <t>Stesen Keretapi Kuang</t>
+  </si>
+  <si>
+    <t>Stesen KTM Tanjung Malim</t>
+  </si>
+  <si>
+    <t>Stesen KTM Komuter Batang Kali</t>
+  </si>
+  <si>
+    <t>Stesen KTM Komuter Kepong Sentral</t>
+  </si>
+  <si>
+    <t>Stesen KTM Komuter Putra</t>
+  </si>
+  <si>
+    <t>Stesen KTM Komuter Bank Negara</t>
+  </si>
+  <si>
+    <t>Stesen KTM Komuter Abdullah Hukum</t>
+  </si>
+  <si>
+    <t>Perhentian KTMb Angkasapuri</t>
+  </si>
+  <si>
+    <t>Stesen KTM Komuter Pantai Dalam</t>
+  </si>
+  <si>
+    <t>Stesen KTM Komuter Petaling</t>
+  </si>
+  <si>
+    <t>Stesen KTM Komuter Jalan Templer</t>
+  </si>
+  <si>
+    <t>Stesen KTM Komuter Kg Dato Harun</t>
+  </si>
+  <si>
+    <t>Stesen KTM Komuter Seri Setia</t>
+  </si>
+  <si>
+    <t>Stesen KTM Komuter Setia Jaya</t>
+  </si>
+  <si>
+    <t>Stesen KTM Subang Jaya</t>
+  </si>
+  <si>
+    <t>Stesen KTM Batu Tiga</t>
+  </si>
+  <si>
+    <t>Stesen KTM Shah Alam</t>
+  </si>
+  <si>
+    <t>Stesen KTM Komuter Padang Jawa</t>
+  </si>
+  <si>
+    <t>Stesen KTM Bukit Badak</t>
+  </si>
+  <si>
+    <t>Stesen KTM Komuter Klang</t>
+  </si>
+  <si>
+    <t>Stesen KTM Komuter Teluk Pulai</t>
+  </si>
+  <si>
+    <t>Stesen KTM Teluk Gadong</t>
+  </si>
+  <si>
+    <t>Stesen KTM Komuter Kampung Sungai Sireh Tambahan</t>
+  </si>
+  <si>
+    <t>Stesen KTM Jalan Kastam</t>
+  </si>
+  <si>
+    <t>Stesen KTM Komuter Pel. Klang</t>
+  </si>
+  <si>
+    <t>Stesen KTM Komuter Batu Caves</t>
+  </si>
+  <si>
+    <t>Stesen KTM Komuter Taman Wahyu</t>
+  </si>
+  <si>
+    <t>Stesen KTM Komuter Kg Batu</t>
+  </si>
+  <si>
+    <t>Stesen KTM Komuter Kem Batu Kentonmen</t>
+  </si>
+  <si>
+    <t>Stesen KTM Komuter Midvalley</t>
+  </si>
+  <si>
+    <t>Stesen KTM Komuter Seputeh</t>
+  </si>
+  <si>
+    <t>Stesen KTM Komuter Salak South</t>
+  </si>
+  <si>
+    <t>Stesen KTMb Bandar Tasik Selatan Selatan</t>
+  </si>
+  <si>
+    <t>Stesen KTM Komuter Kajang</t>
+  </si>
+  <si>
+    <t>Stesen KTM Ukm</t>
+  </si>
+  <si>
+    <t>Stesen KTM Bangi</t>
+  </si>
+  <si>
+    <t>Stesen KTM Batang Benar</t>
+  </si>
+  <si>
+    <t>Stesen KTM Nilai</t>
+  </si>
+  <si>
+    <t>Stesen KTM Labu</t>
+  </si>
+  <si>
+    <t>Stesen KTM Tiroi</t>
+  </si>
+  <si>
+    <t>KTM Komuter Seremban</t>
+  </si>
+  <si>
+    <t>Stesen KTM Senawang</t>
+  </si>
+  <si>
+    <t>Stesen KTM</t>
+  </si>
+  <si>
+    <t>Stesen KTM Rembau</t>
+  </si>
+  <si>
+    <t>Stesen KTM Pulau Sebang</t>
   </si>
 </sst>
 </file>
@@ -918,7 +918,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{029C1D9E-71F7-45A5-A03D-5F270278EBD9}">
   <dimension ref="A1:H61"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -933,39 +935,39 @@
   <sheetData>
     <row r="1" spans="1:8" s="2" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>148</v>
+        <v>92</v>
       </c>
       <c r="B1" s="13" t="s">
-        <v>147</v>
+        <v>91</v>
       </c>
       <c r="C1" s="13" t="s">
-        <v>142</v>
+        <v>86</v>
       </c>
       <c r="D1" s="13" t="s">
-        <v>143</v>
+        <v>87</v>
       </c>
       <c r="E1" s="13" t="s">
-        <v>144</v>
+        <v>88</v>
       </c>
       <c r="F1" s="13" t="s">
-        <v>149</v>
+        <v>93</v>
       </c>
       <c r="G1" s="13" t="s">
-        <v>145</v>
+        <v>89</v>
       </c>
       <c r="H1" s="13" t="s">
-        <v>146</v>
+        <v>90</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="4" t="s">
-        <v>5</v>
-      </c>
       <c r="C2" s="4" t="s">
-        <v>6</v>
+        <v>106</v>
       </c>
       <c r="D2" s="5">
         <v>3.6851419999999999</v>
@@ -974,13 +976,13 @@
         <v>101.518165</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G2" s="8" t="s">
-        <v>90</v>
+        <v>56</v>
       </c>
       <c r="H2" s="8" t="s">
-        <v>90</v>
+        <v>56</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
@@ -991,7 +993,7 @@
         <v>1</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>8</v>
+        <v>94</v>
       </c>
       <c r="D3" s="5">
         <v>3.5532149999999998</v>
@@ -1000,13 +1002,13 @@
         <v>101.639591</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="G3" s="8" t="s">
-        <v>90</v>
+        <v>56</v>
       </c>
       <c r="H3" s="8" t="s">
-        <v>90</v>
+        <v>56</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
@@ -1017,22 +1019,22 @@
         <v>1</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>10</v>
+        <v>95</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="G4" s="8" t="s">
-        <v>90</v>
+        <v>56</v>
       </c>
       <c r="H4" s="8" t="s">
-        <v>90</v>
+        <v>56</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
@@ -1043,22 +1045,22 @@
         <v>1</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>14</v>
+        <v>107</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E5" s="5">
         <v>101.637759</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="G5" s="8" t="s">
-        <v>90</v>
+        <v>56</v>
       </c>
       <c r="H5" s="8" t="s">
-        <v>90</v>
+        <v>56</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
@@ -1069,7 +1071,7 @@
         <v>1</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>17</v>
+        <v>96</v>
       </c>
       <c r="D6" s="5">
         <v>3.375963</v>
@@ -1078,13 +1080,13 @@
         <v>101.61453400000001</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="G6" s="8" t="s">
-        <v>90</v>
+        <v>56</v>
       </c>
       <c r="H6" s="8" t="s">
-        <v>90</v>
+        <v>56</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
@@ -1095,7 +1097,7 @@
         <v>1</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>19</v>
+        <v>97</v>
       </c>
       <c r="D7" s="5">
         <v>3.3189549999999999</v>
@@ -1104,13 +1106,13 @@
         <v>101.575012</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="G7" s="8" t="s">
-        <v>90</v>
+        <v>56</v>
       </c>
       <c r="H7" s="8" t="s">
-        <v>90</v>
+        <v>56</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
@@ -1121,22 +1123,22 @@
         <v>1</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>21</v>
+        <v>105</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="G8" s="8" t="s">
-        <v>90</v>
+        <v>56</v>
       </c>
       <c r="H8" s="8" t="s">
-        <v>90</v>
+        <v>56</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
@@ -1146,8 +1148,8 @@
       <c r="B9" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C9" s="4" t="s">
-        <v>25</v>
+      <c r="C9" s="6" t="s">
+        <v>98</v>
       </c>
       <c r="D9" s="5">
         <v>3.206356</v>
@@ -1156,24 +1158,24 @@
         <v>101.580128</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="G9" s="8" t="s">
-        <v>90</v>
+        <v>56</v>
       </c>
       <c r="H9" s="8" t="s">
-        <v>90</v>
+        <v>56</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>1</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>28</v>
+        <v>108</v>
       </c>
       <c r="D10" s="5">
         <v>3.2067543999999999</v>
@@ -1182,13 +1184,13 @@
         <v>101.627081</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="G10" s="8" t="s">
-        <v>90</v>
+        <v>56</v>
       </c>
       <c r="H10" s="8" t="s">
-        <v>90</v>
+        <v>56</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
@@ -1199,22 +1201,22 @@
         <v>1</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>30</v>
+        <v>99</v>
       </c>
       <c r="D11" s="5">
         <v>3.2075809999999998</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="G11" s="8" t="s">
-        <v>90</v>
+        <v>56</v>
       </c>
       <c r="H11" s="8" t="s">
-        <v>90</v>
+        <v>56</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
@@ -1225,7 +1227,7 @@
         <v>1</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>33</v>
+        <v>100</v>
       </c>
       <c r="D12" s="5">
         <v>3.1863869999999999</v>
@@ -1234,13 +1236,13 @@
         <v>101.664112</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="G12" s="8" t="s">
-        <v>90</v>
+        <v>56</v>
       </c>
       <c r="H12" s="8" t="s">
-        <v>90</v>
+        <v>56</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
@@ -1251,22 +1253,22 @@
         <v>1</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>35</v>
+        <v>109</v>
       </c>
       <c r="D13" s="11">
         <v>3.1649919999999998</v>
       </c>
       <c r="E13" s="11" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="F13" s="10" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="G13" s="12" t="s">
-        <v>90</v>
+        <v>56</v>
       </c>
       <c r="H13" s="12" t="s">
-        <v>90</v>
+        <v>56</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
@@ -1277,33 +1279,33 @@
         <v>1</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>38</v>
+        <v>110</v>
       </c>
       <c r="D14" s="11">
         <v>3.154747</v>
       </c>
       <c r="E14" s="11" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="F14" s="10" t="s">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="G14" s="12" t="s">
-        <v>90</v>
+        <v>56</v>
       </c>
       <c r="H14" s="12" t="s">
-        <v>90</v>
+        <v>56</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="9" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="B15" s="10" t="s">
         <v>1</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>41</v>
+        <v>101</v>
       </c>
       <c r="D15" s="11">
         <v>3.1394440000000001</v>
@@ -1312,24 +1314,24 @@
         <v>101.693333</v>
       </c>
       <c r="F15" s="10" t="s">
-        <v>42</v>
+        <v>27</v>
       </c>
       <c r="G15" s="12" t="s">
-        <v>90</v>
+        <v>56</v>
       </c>
       <c r="H15" s="12" t="s">
-        <v>90</v>
+        <v>56</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="9" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="B16" s="10" t="s">
         <v>1</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>43</v>
+        <v>102</v>
       </c>
       <c r="D16" s="11">
         <v>3.1341670000000001</v>
@@ -1338,13 +1340,13 @@
         <v>101.686111</v>
       </c>
       <c r="F16" s="10" t="s">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="G16" s="12" t="s">
-        <v>90</v>
+        <v>56</v>
       </c>
       <c r="H16" s="12" t="s">
-        <v>90</v>
+        <v>56</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
@@ -1354,8 +1356,8 @@
       <c r="B17" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C17" s="4" t="s">
-        <v>2</v>
+      <c r="C17" s="6" t="s">
+        <v>111</v>
       </c>
       <c r="D17" s="5">
         <v>3.1187353999999998</v>
@@ -1364,13 +1366,13 @@
         <v>101.67075800000001</v>
       </c>
       <c r="F17" s="6" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G17" s="8" t="s">
-        <v>90</v>
+        <v>56</v>
       </c>
       <c r="H17" s="8" t="s">
-        <v>90</v>
+        <v>56</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
@@ -1380,23 +1382,23 @@
       <c r="B18" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C18" s="4" t="s">
-        <v>45</v>
+      <c r="C18" s="6" t="s">
+        <v>112</v>
       </c>
       <c r="D18" s="5">
         <v>3.1131060000000002</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="F18" s="6" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="G18" s="8" t="s">
-        <v>90</v>
+        <v>56</v>
       </c>
       <c r="H18" s="8" t="s">
-        <v>90</v>
+        <v>56</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
@@ -1407,7 +1409,7 @@
         <v>1</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>48</v>
+        <v>113</v>
       </c>
       <c r="D19" s="5">
         <v>3.0956206000000002</v>
@@ -1416,13 +1418,13 @@
         <v>101.66779099999999</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="G19" s="8" t="s">
-        <v>90</v>
+        <v>56</v>
       </c>
       <c r="H19" s="8" t="s">
-        <v>90</v>
+        <v>56</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
@@ -1433,22 +1435,22 @@
         <v>1</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>50</v>
+        <v>114</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>51</v>
+        <v>32</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>52</v>
+        <v>33</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>53</v>
+        <v>34</v>
       </c>
       <c r="G20" s="8" t="s">
-        <v>90</v>
+        <v>56</v>
       </c>
       <c r="H20" s="8" t="s">
-        <v>90</v>
+        <v>56</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
@@ -1459,22 +1461,22 @@
         <v>1</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>54</v>
+        <v>115</v>
       </c>
       <c r="D21" s="5">
         <v>3.0833330000000001</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>55</v>
+        <v>35</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>56</v>
+        <v>36</v>
       </c>
       <c r="G21" s="8" t="s">
-        <v>90</v>
+        <v>56</v>
       </c>
       <c r="H21" s="8" t="s">
-        <v>90</v>
+        <v>56</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
@@ -1485,7 +1487,7 @@
         <v>1</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>57</v>
+        <v>116</v>
       </c>
       <c r="D22" s="5">
         <v>3.084444</v>
@@ -1494,13 +1496,13 @@
         <v>101.630033</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>58</v>
+        <v>37</v>
       </c>
       <c r="G22" s="8" t="s">
-        <v>90</v>
+        <v>56</v>
       </c>
       <c r="H22" s="8" t="s">
-        <v>90</v>
+        <v>56</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
@@ -1511,7 +1513,7 @@
         <v>1</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>59</v>
+        <v>117</v>
       </c>
       <c r="D23" s="5">
         <v>3.084444</v>
@@ -1520,13 +1522,13 @@
         <v>101.619478</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>60</v>
+        <v>38</v>
       </c>
       <c r="G23" s="8" t="s">
-        <v>90</v>
+        <v>56</v>
       </c>
       <c r="H23" s="8" t="s">
-        <v>90</v>
+        <v>56</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
@@ -1537,7 +1539,7 @@
         <v>1</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>61</v>
+        <v>118</v>
       </c>
       <c r="D24" s="5">
         <v>3.0830549999999999</v>
@@ -1546,13 +1548,13 @@
         <v>101.60892200000001</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>62</v>
+        <v>39</v>
       </c>
       <c r="G24" s="8" t="s">
-        <v>90</v>
+        <v>56</v>
       </c>
       <c r="H24" s="8" t="s">
-        <v>90</v>
+        <v>56</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
@@ -1563,22 +1565,22 @@
         <v>1</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>63</v>
+        <v>119</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>64</v>
+        <v>40</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>65</v>
+        <v>41</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>66</v>
+        <v>42</v>
       </c>
       <c r="G25" s="8" t="s">
-        <v>90</v>
+        <v>56</v>
       </c>
       <c r="H25" s="8" t="s">
-        <v>90</v>
+        <v>56</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
@@ -1589,7 +1591,7 @@
         <v>1</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>67</v>
+        <v>120</v>
       </c>
       <c r="D26" s="5">
         <v>3.0759349999999999</v>
@@ -1598,13 +1600,13 @@
         <v>101.559755</v>
       </c>
       <c r="F26" s="4" t="s">
-        <v>68</v>
+        <v>43</v>
       </c>
       <c r="G26" s="8" t="s">
-        <v>90</v>
+        <v>56</v>
       </c>
       <c r="H26" s="8" t="s">
-        <v>90</v>
+        <v>56</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.3">
@@ -1615,22 +1617,22 @@
         <v>1</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>69</v>
+        <v>121</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>70</v>
+        <v>44</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>71</v>
+        <v>45</v>
       </c>
       <c r="F27" s="4" t="s">
-        <v>72</v>
+        <v>46</v>
       </c>
       <c r="G27" s="8" t="s">
-        <v>90</v>
+        <v>56</v>
       </c>
       <c r="H27" s="8" t="s">
-        <v>90</v>
+        <v>56</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.3">
@@ -1641,7 +1643,7 @@
         <v>1</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>73</v>
+        <v>122</v>
       </c>
       <c r="D28" s="5">
         <v>3.0524390000000001</v>
@@ -1650,13 +1652,13 @@
         <v>101.490229</v>
       </c>
       <c r="F28" s="4" t="s">
-        <v>74</v>
+        <v>47</v>
       </c>
       <c r="G28" s="8" t="s">
-        <v>90</v>
+        <v>56</v>
       </c>
       <c r="H28" s="8" t="s">
-        <v>90</v>
+        <v>56</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.3">
@@ -1666,23 +1668,23 @@
       <c r="B29" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C29" s="4" t="s">
-        <v>75</v>
+      <c r="C29" s="6" t="s">
+        <v>123</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>76</v>
+        <v>48</v>
       </c>
       <c r="E29" s="5">
         <v>101.4680413</v>
       </c>
       <c r="F29" s="6" t="s">
-        <v>77</v>
+        <v>49</v>
       </c>
       <c r="G29" s="8" t="s">
-        <v>90</v>
+        <v>56</v>
       </c>
       <c r="H29" s="8" t="s">
-        <v>90</v>
+        <v>56</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.3">
@@ -1693,7 +1695,7 @@
         <v>1</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>78</v>
+        <v>124</v>
       </c>
       <c r="D30" s="5">
         <v>3.0427770000000001</v>
@@ -1702,13 +1704,13 @@
         <v>101.447811</v>
       </c>
       <c r="F30" s="4" t="s">
-        <v>79</v>
+        <v>50</v>
       </c>
       <c r="G30" s="8" t="s">
-        <v>90</v>
+        <v>56</v>
       </c>
       <c r="H30" s="8" t="s">
-        <v>90</v>
+        <v>56</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.3">
@@ -1719,7 +1721,7 @@
         <v>1</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>80</v>
+        <v>125</v>
       </c>
       <c r="D31" s="5">
         <v>3.0407133000000002</v>
@@ -1728,13 +1730,13 @@
         <v>101.429866</v>
       </c>
       <c r="F31" s="4" t="s">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="G31" s="8" t="s">
-        <v>90</v>
+        <v>56</v>
       </c>
       <c r="H31" s="8" t="s">
-        <v>90</v>
+        <v>56</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.3">
@@ -1745,7 +1747,7 @@
         <v>1</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>82</v>
+        <v>126</v>
       </c>
       <c r="D32" s="5">
         <v>3.0338880000000001</v>
@@ -1754,13 +1756,13 @@
         <v>101.422811</v>
       </c>
       <c r="F32" s="4" t="s">
-        <v>83</v>
+        <v>52</v>
       </c>
       <c r="G32" s="8" t="s">
-        <v>90</v>
+        <v>56</v>
       </c>
       <c r="H32" s="8" t="s">
-        <v>90</v>
+        <v>56</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.3">
@@ -1771,7 +1773,7 @@
         <v>1</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>84</v>
+        <v>127</v>
       </c>
       <c r="D33" s="5">
         <v>3.0202770000000001</v>
@@ -1780,13 +1782,13 @@
         <v>101.408089</v>
       </c>
       <c r="F33" s="4" t="s">
-        <v>85</v>
+        <v>53</v>
       </c>
       <c r="G33" s="8" t="s">
-        <v>90</v>
+        <v>56</v>
       </c>
       <c r="H33" s="8" t="s">
-        <v>90</v>
+        <v>56</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.3">
@@ -1797,7 +1799,7 @@
         <v>1</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>86</v>
+        <v>128</v>
       </c>
       <c r="D34" s="5">
         <v>3.013055</v>
@@ -1806,13 +1808,13 @@
         <v>101.400311</v>
       </c>
       <c r="F34" s="4" t="s">
-        <v>87</v>
+        <v>54</v>
       </c>
       <c r="G34" s="8" t="s">
-        <v>90</v>
+        <v>56</v>
       </c>
       <c r="H34" s="8" t="s">
-        <v>90</v>
+        <v>56</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.3">
@@ -1823,7 +1825,7 @@
         <v>1</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>88</v>
+        <v>129</v>
       </c>
       <c r="D35" s="5">
         <v>3.013055</v>
@@ -1832,13 +1834,13 @@
         <v>101.393745</v>
       </c>
       <c r="F35" s="4" t="s">
-        <v>89</v>
+        <v>55</v>
       </c>
       <c r="G35" s="8" t="s">
-        <v>90</v>
+        <v>56</v>
       </c>
       <c r="H35" s="8" t="s">
-        <v>90</v>
+        <v>56</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.3">
@@ -1849,7 +1851,7 @@
         <v>1</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>91</v>
+        <v>130</v>
       </c>
       <c r="D36" s="5">
         <v>3.2377549999999999</v>
@@ -1858,13 +1860,13 @@
         <v>101.67899800000001</v>
       </c>
       <c r="F36" s="4" t="s">
-        <v>92</v>
+        <v>57</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>141</v>
+        <v>85</v>
       </c>
       <c r="H36" s="7" t="s">
-        <v>141</v>
+        <v>85</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.3">
@@ -1875,7 +1877,7 @@
         <v>1</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>93</v>
+        <v>131</v>
       </c>
       <c r="D37" s="5">
         <v>3.214477</v>
@@ -1884,13 +1886,13 @@
         <v>101.669995</v>
       </c>
       <c r="F37" s="4" t="s">
-        <v>94</v>
+        <v>58</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>141</v>
+        <v>85</v>
       </c>
       <c r="H37" s="7" t="s">
-        <v>141</v>
+        <v>85</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.3">
@@ -1901,7 +1903,7 @@
         <v>1</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>95</v>
+        <v>132</v>
       </c>
       <c r="D38" s="5">
         <v>3.2045469999999998</v>
@@ -1910,13 +1912,13 @@
         <v>101.673653</v>
       </c>
       <c r="F38" s="4" t="s">
-        <v>96</v>
+        <v>59</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>141</v>
+        <v>85</v>
       </c>
       <c r="H38" s="7" t="s">
-        <v>141</v>
+        <v>85</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.3">
@@ -1927,7 +1929,7 @@
         <v>1</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>97</v>
+        <v>133</v>
       </c>
       <c r="D39" s="5">
         <v>3.1982460000000001</v>
@@ -1936,13 +1938,13 @@
         <v>101.679044</v>
       </c>
       <c r="F39" s="4" t="s">
-        <v>98</v>
+        <v>60</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>141</v>
+        <v>85</v>
       </c>
       <c r="H39" s="7" t="s">
-        <v>141</v>
+        <v>85</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.3">
@@ -1953,7 +1955,7 @@
         <v>1</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="D40" s="5">
         <v>3.1824952</v>
@@ -1962,13 +1964,13 @@
         <v>101.686618</v>
       </c>
       <c r="F40" s="4" t="s">
-        <v>100</v>
+        <v>61</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>141</v>
+        <v>85</v>
       </c>
       <c r="H40" s="7" t="s">
-        <v>141</v>
+        <v>85</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.3">
@@ -1979,22 +1981,22 @@
         <v>1</v>
       </c>
       <c r="C41" s="10" t="s">
-        <v>35</v>
+        <v>109</v>
       </c>
       <c r="D41" s="11">
         <v>3.1649919999999998</v>
       </c>
       <c r="E41" s="11" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="F41" s="10" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>141</v>
+        <v>85</v>
       </c>
       <c r="H41" s="7" t="s">
-        <v>141</v>
+        <v>85</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.3">
@@ -2005,33 +2007,33 @@
         <v>1</v>
       </c>
       <c r="C42" s="10" t="s">
-        <v>38</v>
+        <v>110</v>
       </c>
       <c r="D42" s="11">
         <v>3.154747</v>
       </c>
       <c r="E42" s="11" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="F42" s="10" t="s">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>141</v>
+        <v>85</v>
       </c>
       <c r="H42" s="7" t="s">
-        <v>141</v>
+        <v>85</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A43" s="9" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="B43" s="10" t="s">
         <v>1</v>
       </c>
       <c r="C43" s="10" t="s">
-        <v>41</v>
+        <v>101</v>
       </c>
       <c r="D43" s="11">
         <v>3.1394440000000001</v>
@@ -2040,24 +2042,24 @@
         <v>101.693333</v>
       </c>
       <c r="F43" s="10" t="s">
-        <v>42</v>
+        <v>27</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>141</v>
+        <v>85</v>
       </c>
       <c r="H43" s="7" t="s">
-        <v>141</v>
+        <v>85</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A44" s="9" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="B44" s="10" t="s">
         <v>1</v>
       </c>
       <c r="C44" s="10" t="s">
-        <v>43</v>
+        <v>102</v>
       </c>
       <c r="D44" s="11">
         <v>3.1341670000000001</v>
@@ -2066,13 +2068,13 @@
         <v>101.686111</v>
       </c>
       <c r="F44" s="10" t="s">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>141</v>
+        <v>85</v>
       </c>
       <c r="H44" s="7" t="s">
-        <v>141</v>
+        <v>85</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.3">
@@ -2083,7 +2085,7 @@
         <v>1</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>101</v>
+        <v>134</v>
       </c>
       <c r="D45" s="5">
         <v>3.119008</v>
@@ -2092,13 +2094,13 @@
         <v>101.676644</v>
       </c>
       <c r="F45" s="4" t="s">
-        <v>102</v>
+        <v>62</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>141</v>
+        <v>85</v>
       </c>
       <c r="H45" s="7" t="s">
-        <v>141</v>
+        <v>85</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.3">
@@ -2109,7 +2111,7 @@
         <v>1</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>103</v>
+        <v>135</v>
       </c>
       <c r="D46" s="5">
         <v>3.1134189999999999</v>
@@ -2118,13 +2120,13 @@
         <v>101.679317</v>
       </c>
       <c r="F46" s="4" t="s">
-        <v>104</v>
+        <v>63</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>141</v>
+        <v>85</v>
       </c>
       <c r="H46" s="7" t="s">
-        <v>141</v>
+        <v>85</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.3">
@@ -2135,7 +2137,7 @@
         <v>1</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>105</v>
+        <v>136</v>
       </c>
       <c r="D47" s="5">
         <v>3.1134189999999999</v>
@@ -2144,24 +2146,24 @@
         <v>101.67275100000001</v>
       </c>
       <c r="F47" s="4" t="s">
-        <v>106</v>
+        <v>64</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>141</v>
+        <v>85</v>
       </c>
       <c r="H47" s="7" t="s">
-        <v>141</v>
+        <v>85</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A48" s="3" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="B48" s="4" t="s">
         <v>1</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>107</v>
+        <v>137</v>
       </c>
       <c r="D48" s="5">
         <v>3.0762290000000001</v>
@@ -2170,13 +2172,13 @@
         <v>101.711119</v>
       </c>
       <c r="F48" s="4" t="s">
-        <v>108</v>
+        <v>65</v>
       </c>
       <c r="G48" s="7" t="s">
-        <v>141</v>
+        <v>85</v>
       </c>
       <c r="H48" s="7" t="s">
-        <v>141</v>
+        <v>85</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.3">
@@ -2187,7 +2189,7 @@
         <v>1</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="D49" s="5">
         <v>3.0235932999999999</v>
@@ -2196,13 +2198,13 @@
         <v>101.7134464</v>
       </c>
       <c r="F49" s="4" t="s">
-        <v>110</v>
+        <v>66</v>
       </c>
       <c r="G49" s="7" t="s">
-        <v>141</v>
+        <v>85</v>
       </c>
       <c r="H49" s="7" t="s">
-        <v>141</v>
+        <v>85</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.3">
@@ -2213,7 +2215,7 @@
         <v>1</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>111</v>
+        <v>138</v>
       </c>
       <c r="D50" s="5">
         <v>2.983222</v>
@@ -2222,13 +2224,13 @@
         <v>101.79066899999999</v>
       </c>
       <c r="F50" s="4" t="s">
-        <v>112</v>
+        <v>67</v>
       </c>
       <c r="G50" s="7" t="s">
-        <v>141</v>
+        <v>85</v>
       </c>
       <c r="H50" s="7" t="s">
-        <v>141</v>
+        <v>85</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.3">
@@ -2239,7 +2241,7 @@
         <v>1</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>113</v>
+        <v>139</v>
       </c>
       <c r="D51" s="5">
         <v>2.9395259999999999</v>
@@ -2248,13 +2250,13 @@
         <v>101.788116</v>
       </c>
       <c r="F51" s="4" t="s">
-        <v>114</v>
+        <v>68</v>
       </c>
       <c r="G51" s="7" t="s">
-        <v>141</v>
+        <v>85</v>
       </c>
       <c r="H51" s="7" t="s">
-        <v>141</v>
+        <v>85</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.3">
@@ -2265,7 +2267,7 @@
         <v>1</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>115</v>
+        <v>140</v>
       </c>
       <c r="D52" s="5">
         <v>2.9042530000000002</v>
@@ -2274,24 +2276,24 @@
         <v>101.78633499999999</v>
       </c>
       <c r="F52" s="4" t="s">
-        <v>116</v>
+        <v>69</v>
       </c>
       <c r="G52" s="7" t="s">
-        <v>141</v>
+        <v>85</v>
       </c>
       <c r="H52" s="7" t="s">
-        <v>141</v>
+        <v>85</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A53" s="3" t="s">
-        <v>117</v>
+        <v>70</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>118</v>
+        <v>71</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>119</v>
+        <v>141</v>
       </c>
       <c r="D53" s="5">
         <v>2.829863</v>
@@ -2300,24 +2302,24 @@
         <v>101.824637</v>
       </c>
       <c r="F53" s="4" t="s">
-        <v>120</v>
+        <v>72</v>
       </c>
       <c r="G53" s="7" t="s">
-        <v>141</v>
+        <v>85</v>
       </c>
       <c r="H53" s="7" t="s">
-        <v>141</v>
+        <v>85</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A54" s="3" t="s">
-        <v>117</v>
+        <v>70</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>118</v>
+        <v>71</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>121</v>
+        <v>142</v>
       </c>
       <c r="D54" s="5">
         <v>2.802155</v>
@@ -2326,76 +2328,76 @@
         <v>101.799359</v>
       </c>
       <c r="F54" s="4" t="s">
-        <v>122</v>
+        <v>73</v>
       </c>
       <c r="G54" s="7" t="s">
-        <v>141</v>
+        <v>85</v>
       </c>
       <c r="H54" s="7" t="s">
-        <v>141</v>
+        <v>85</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A55" s="3" t="s">
-        <v>117</v>
+        <v>70</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>118</v>
+        <v>71</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>123</v>
+        <v>143</v>
       </c>
       <c r="D55" s="5">
         <v>2.7538879999999999</v>
       </c>
       <c r="E55" s="5" t="s">
-        <v>124</v>
+        <v>74</v>
       </c>
       <c r="F55" s="4" t="s">
-        <v>125</v>
+        <v>75</v>
       </c>
       <c r="G55" s="7" t="s">
-        <v>141</v>
+        <v>85</v>
       </c>
       <c r="H55" s="7" t="s">
-        <v>141</v>
+        <v>85</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A56" s="3" t="s">
-        <v>117</v>
+        <v>70</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>118</v>
+        <v>71</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>126</v>
+        <v>144</v>
       </c>
       <c r="D56" s="5">
         <v>2.7411110000000001</v>
       </c>
       <c r="E56" s="5" t="s">
-        <v>127</v>
+        <v>76</v>
       </c>
       <c r="F56" s="4" t="s">
-        <v>128</v>
+        <v>77</v>
       </c>
       <c r="G56" s="7" t="s">
-        <v>141</v>
+        <v>85</v>
       </c>
       <c r="H56" s="7" t="s">
-        <v>141</v>
+        <v>85</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A57" s="3" t="s">
-        <v>117</v>
+        <v>70</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>118</v>
+        <v>71</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>129</v>
+        <v>145</v>
       </c>
       <c r="D57" s="5">
         <v>2.7191689999999999</v>
@@ -2404,24 +2406,24 @@
         <v>101.940792</v>
       </c>
       <c r="F57" s="4" t="s">
-        <v>130</v>
+        <v>78</v>
       </c>
       <c r="G57" s="7" t="s">
-        <v>141</v>
+        <v>85</v>
       </c>
       <c r="H57" s="7" t="s">
-        <v>141</v>
+        <v>85</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A58" s="3" t="s">
-        <v>117</v>
+        <v>70</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>118</v>
+        <v>71</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>131</v>
+        <v>146</v>
       </c>
       <c r="D58" s="5">
         <v>2.7006579999999998</v>
@@ -2430,24 +2432,24 @@
         <v>101.898951</v>
       </c>
       <c r="F58" s="4" t="s">
-        <v>132</v>
+        <v>79</v>
       </c>
       <c r="G58" s="7" t="s">
-        <v>141</v>
+        <v>85</v>
       </c>
       <c r="H58" s="7" t="s">
-        <v>141</v>
+        <v>85</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A59" s="3" t="s">
-        <v>117</v>
+        <v>70</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>118</v>
+        <v>71</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>133</v>
+        <v>147</v>
       </c>
       <c r="D59" s="5">
         <v>2.6602070000000002</v>
@@ -2456,24 +2458,24 @@
         <v>101.994086</v>
       </c>
       <c r="F59" s="4" t="s">
-        <v>134</v>
+        <v>80</v>
       </c>
       <c r="G59" s="7" t="s">
-        <v>141</v>
+        <v>85</v>
       </c>
       <c r="H59" s="7" t="s">
-        <v>141</v>
+        <v>85</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A60" s="3" t="s">
-        <v>117</v>
+        <v>70</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>118</v>
+        <v>71</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>135</v>
+        <v>148</v>
       </c>
       <c r="D60" s="5">
         <v>2.5922529999999999</v>
@@ -2482,39 +2484,39 @@
         <v>102.094703</v>
       </c>
       <c r="F60" s="4" t="s">
-        <v>136</v>
+        <v>81</v>
       </c>
       <c r="G60" s="7" t="s">
-        <v>141</v>
+        <v>85</v>
       </c>
       <c r="H60" s="7" t="s">
-        <v>141</v>
+        <v>85</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A61" s="3" t="s">
-        <v>137</v>
+        <v>82</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>118</v>
+        <v>71</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="D61" s="5" t="s">
-        <v>139</v>
+        <v>83</v>
       </c>
       <c r="E61" s="5">
         <v>102.226269</v>
       </c>
       <c r="F61" s="4" t="s">
-        <v>140</v>
+        <v>84</v>
       </c>
       <c r="G61" s="7" t="s">
-        <v>141</v>
+        <v>85</v>
       </c>
       <c r="H61" s="7" t="s">
-        <v>141</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>
